--- a/test/fixtures/upload_hierarchy.xlsx
+++ b/test/fixtures/upload_hierarchy.xlsx
@@ -20,30 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">domain_external_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">critical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confidential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hierarchy_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hierarchy_name_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">critical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confidential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hierarchy_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hierarchy_name_2</t>
   </si>
   <si>
     <t xml:space="preserve">Test</t>
@@ -136,12 +139,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -158,72 +165,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/test/fixtures/upload_hierarchy.xlsx
+++ b/test/fixtures/upload_hierarchy.xlsx
@@ -14,38 +14,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+  <si>
+    <t>name_es</t>
+  </si>
+  <si>
+    <t>name_en</t>
+  </si>
+  <si>
+    <t>domain_external_id</t>
+  </si>
+  <si>
+    <t>description_es</t>
+  </si>
+  <si>
+    <t>description_en</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>confidential</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>hierarchy_name_1</t>
+  </si>
+  <si>
+    <t>hierarchy_name_2</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>domain_external_id</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>confidential</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>hierarchy_name_1</t>
-  </si>
-  <si>
-    <t>hierarchy_name_2</t>
-  </si>
-  <si>
-    <t>father</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
     <t>domain</t>
   </si>
   <si>
@@ -65,6 +77,9 @@
   </si>
   <si>
     <t>children_1|father</t>
+  </si>
+  <si>
+    <t>nombre2</t>
   </si>
   <si>
     <t>name2</t>
@@ -132,10 +147,10 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,25 +454,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="11.862142857142858" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="3" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="20.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,71 +499,89 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
